--- a/biology/Zoologie/Iton_(homonymie)/Iton_(homonymie).xlsx
+++ b/biology/Zoologie/Iton_(homonymie)/Iton_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Entomologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Iton, genre regroupant des insectes lépidoptères de la famille des Hesperiidae.</t>
         </is>
@@ -536,7 +550,9 @@
           <t>Hydronyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Iton est une rivière française, dernier affluent de la rive gauche de l'Eure, et donc un sous-affluent de la Seine. Elle arrose notamment la ville d'Évreux.</t>
         </is>
@@ -566,7 +582,9 @@
           <t>Toponymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amfreville-sur-Iton est une commune française située dans le département de l'Eure en région Normandie.
 Arnières-sur-Iton est une commune française située dans le département de l'Eure en région Normandie.
